--- a/biology/Origine et évolution du vivant/Liste_des_animaux_du_Paléozoïque/Liste_des_animaux_du_Paléozoïque.xlsx
+++ b/biology/Origine et évolution du vivant/Liste_des_animaux_du_Paléozoïque/Liste_des_animaux_du_Paléozoïque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste répertorie les animaux préhistoriques du Paléozoïque par ordre alphabétique accompagné de leurs époques respectives d'apparition. Certaines espèces peuvent figurer deux fois : une fois sous leur nom binominal, et une fois sous leur nom vernaculaire. L’époque qui est écrite entre parenthèses est celle d'apparition de l'espèce.
 Sommaire :
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acadagnostus (en) (Cambrien)
 Acanthodes (en) (Carbonifère)
@@ -568,7 +582,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -586,7 +600,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baldwinonus (en) (Permien)
 Balticaspis (Dévonien)
@@ -603,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +637,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cameroceras (Silurien)
 Canadaspis (Cambrien)
@@ -641,7 +659,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -659,7 +677,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Damaspis (Dévonien)
 Diandongaspis (Dévonien)
@@ -682,7 +702,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -700,7 +720,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Edaphosaurus (Permien)
 Edestus (Carbonifère)
@@ -722,7 +744,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -740,7 +762,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fadenia (en) (Carbonifère)
 Falcatus (Carbonifère)
@@ -754,7 +778,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -772,7 +796,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Galeaspis (en) (Dévonien)
 Gigantaspis (Dévonien)
@@ -787,7 +813,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -805,7 +831,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Haikouichthys (Cambrien)
 Hallucigenia (Cambrien)
@@ -827,7 +855,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -845,7 +873,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ichthyostega (Dévonien)
 Illemoraspis (Dévonien)</t>
@@ -858,7 +888,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -876,7 +906,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jaekelopterus (Dévonien)
 Jamoytius (Silurien)</t>
@@ -889,7 +921,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -907,7 +939,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Kerygmachela (Cambrien)
 Kwanggnanaspis (Dévonien)</t>
@@ -920,7 +954,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -938,7 +972,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Lanarkia (Dévonien)
 Laxaspis (Dévonien)
@@ -956,7 +992,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -974,7 +1010,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Marella splendens (Cambrien)
 Megadictyon (Cambrien)
@@ -992,7 +1030,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1010,7 +1048,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Nanpanaspis (Dévonien)
 Naraoia (Cambrien)
@@ -1027,7 +1067,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1045,7 +1085,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Obruchevichthys (Dévonien)
 Oedaleops (en) (Permien)
@@ -1062,7 +1104,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1080,7 +1122,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Paleothyris (Carbonifère)
 Paradoxides (Cambrien)
@@ -1107,7 +1151,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1126,6 +1170,8 @@
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1133,7 +1179,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1151,7 +1197,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Raranimus (Permien)
 Reginaselache (en) (Carbonifère)
@@ -1167,7 +1215,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1185,7 +1233,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Sacabambaspis (Ordovicien)
 Sanctacaris (Cambrien)
@@ -1202,7 +1252,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1220,7 +1270,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Tambachia (en) (Permien)
 Tamisiocaris (en) (Cambrien)
@@ -1237,7 +1289,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1255,7 +1307,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Ulemica (en) (Permien)
 Ulemosaurus (Permien)</t>
@@ -1268,7 +1322,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1286,7 +1340,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Varanodon (Permien)
 Varanops (Permien)</t>
@@ -1299,7 +1355,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1317,7 +1373,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Westlothiana (Carbonifère)
 Wiwaxia (Cambrien)
@@ -1331,7 +1389,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1349,7 +1407,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Xenacanthus (Dévonien)</t>
         </is>
@@ -1361,7 +1421,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1379,7 +1439,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Yawunik (en) (Cambrien)
 Ymeria (Dévonien)</t>
@@ -1392,7 +1454,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_des_animaux_du_Pal%C3%A9ozo%C3%AFque</t>
+          <t>Liste_des_animaux_du_Paléozoïque</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1410,7 +1472,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Zhongjianichthys (Cambrien)
 Zygosaurus (Permien)</t>
